--- a/datasets/tree_DBH_hollows/input/Plot 11.xlsx
+++ b/datasets/tree_DBH_hollows/input/Plot 11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/From robyn/Thursday/plots/11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn/DataScienceProject/datasets/tree_DBH_hollows/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AAC111-453E-D14F-9B01-AFE65534349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB1C576-9984-A249-8898-7F199A164EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17420" windowHeight="16220" xr2:uid="{20E0FF59-B469-6A45-9CF2-1F0580860A0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22560" windowHeight="16220" xr2:uid="{20E0FF59-B469-6A45-9CF2-1F0580860A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="16">
   <si>
     <t>Tree Number</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>No hollows data</t>
+  </si>
+  <si>
+    <t>Originally number 116 - noted on sheet that this is likely a typo</t>
   </si>
 </sst>
 </file>
@@ -451,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBCAA0E-3E0F-044F-9F2D-06DBCE6934B6}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +618,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -634,6 +637,9 @@
       </c>
       <c r="I7" s="2">
         <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1091,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>26.4</v>
+        <v>28.4</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1125,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>34.700000000000003</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -2013,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="D65">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
@@ -2039,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>37.700000000000003</v>
+        <v>27.7</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
